--- a/indir/a.xlsx
+++ b/indir/a.xlsx
@@ -1,26 +1,265 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1368" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="z_a" sheetId="1" r:id="rId1"/>
+    <sheet name="z_b" sheetId="2" r:id="rId2"/>
+    <sheet name="z_c" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="58">
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否男性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运数字列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucknums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语:英语:日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数组嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2:3|4:5:6|7:8:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:b|c:d|e:f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字2</t>
+  </si>
+  <si>
+    <t>名字3</t>
+  </si>
+  <si>
+    <t>名字4</t>
+  </si>
+  <si>
+    <t>名字5</t>
+  </si>
+  <si>
+    <t>名字6</t>
+  </si>
+  <si>
+    <t>名字7</t>
+  </si>
+  <si>
+    <t>名字8</t>
+  </si>
+  <si>
+    <t>名字9</t>
+  </si>
+  <si>
+    <t>汉语:英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语:英语:韩语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语:日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语:日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语:日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:b|c:d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:d|e:f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h:i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +287,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +588,913 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="A1:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>